--- a/Unity Project/Assets/Resources/Data/ItemDropData.xlsx
+++ b/Unity Project/Assets/Resources/Data/ItemDropData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\senier project\RRD\Unity Project\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88023D8F-8DB9-4989-BDD5-8466C51559B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984E2892-BE35-4862-A7A4-B06B4715CB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21694" yWindow="2511" windowWidth="30720" windowHeight="12455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1695" windowWidth="14550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemSheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurtleShell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DogKnight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -434,22 +450,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.296875" customWidth="1"/>
-    <col min="6" max="6" width="31.296875" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -477,7 +495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -491,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -505,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -517,6 +535,62 @@
       </c>
       <c r="D5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
